--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.33269745441809</v>
+        <v>0.4201923333333333</v>
       </c>
       <c r="H2">
-        <v>2.33269745441809</v>
+        <v>1.260577</v>
       </c>
       <c r="I2">
-        <v>0.7080323260118758</v>
+        <v>0.08716480679187069</v>
       </c>
       <c r="J2">
-        <v>0.7080323260118758</v>
+        <v>0.08716480679187069</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.812312868216</v>
+        <v>14.61878266666667</v>
       </c>
       <c r="N2">
-        <v>11.812312868216</v>
+        <v>43.856348</v>
       </c>
       <c r="O2">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="P2">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="Q2">
-        <v>27.55455215847751</v>
+        <v>6.142700399199556</v>
       </c>
       <c r="R2">
-        <v>27.55455215847751</v>
+        <v>55.284303592796</v>
       </c>
       <c r="S2">
-        <v>0.1686725806382759</v>
+        <v>0.02321050464436582</v>
       </c>
       <c r="T2">
-        <v>0.1686725806382759</v>
+        <v>0.02321050464436582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.33269745441809</v>
+        <v>0.4201923333333333</v>
       </c>
       <c r="H3">
-        <v>2.33269745441809</v>
+        <v>1.260577</v>
       </c>
       <c r="I3">
-        <v>0.7080323260118758</v>
+        <v>0.08716480679187069</v>
       </c>
       <c r="J3">
-        <v>0.7080323260118758</v>
+        <v>0.08716480679187069</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.7489416814728</v>
+        <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>26.7489416814728</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="P3">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="Q3">
-        <v>62.39718816874954</v>
+        <v>11.38056016850433</v>
       </c>
       <c r="R3">
-        <v>62.39718816874954</v>
+        <v>102.425041516539</v>
       </c>
       <c r="S3">
-        <v>0.3819584761335715</v>
+        <v>0.04300202312992105</v>
       </c>
       <c r="T3">
-        <v>0.3819584761335715</v>
+        <v>0.04300202312992105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.33269745441809</v>
+        <v>0.4201923333333333</v>
       </c>
       <c r="H4">
-        <v>2.33269745441809</v>
+        <v>1.260577</v>
       </c>
       <c r="I4">
-        <v>0.7080323260118758</v>
+        <v>0.08716480679187069</v>
       </c>
       <c r="J4">
-        <v>0.7080323260118758</v>
+        <v>0.08716480679187069</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.0229714342534</v>
+        <v>13.19647366666667</v>
       </c>
       <c r="N4">
-        <v>11.0229714342534</v>
+        <v>39.589421</v>
       </c>
       <c r="O4">
-        <v>0.2223080267063799</v>
+        <v>0.2403754426670501</v>
       </c>
       <c r="P4">
-        <v>0.2223080267063799</v>
+        <v>0.2403754426670501</v>
       </c>
       <c r="Q4">
-        <v>25.71325740480622</v>
+        <v>5.545057061768556</v>
       </c>
       <c r="R4">
-        <v>25.71325740480622</v>
+        <v>49.905513555917</v>
       </c>
       <c r="S4">
-        <v>0.1574012692400284</v>
+        <v>0.02095227901758382</v>
       </c>
       <c r="T4">
-        <v>0.1574012692400284</v>
+        <v>0.02095227901758381</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.961922534979066</v>
+        <v>2.446732</v>
       </c>
       <c r="H5">
-        <v>0.961922534979066</v>
+        <v>7.340196000000001</v>
       </c>
       <c r="I5">
-        <v>0.2919676739881242</v>
+        <v>0.5075507217365239</v>
       </c>
       <c r="J5">
-        <v>0.2919676739881242</v>
+        <v>0.5075507217365239</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.812312868216</v>
+        <v>14.61878266666667</v>
       </c>
       <c r="N5">
-        <v>11.812312868216</v>
+        <v>43.856348</v>
       </c>
       <c r="O5">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="P5">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="Q5">
-        <v>11.36252993816018</v>
+        <v>35.76824335157867</v>
       </c>
       <c r="R5">
-        <v>11.36252993816018</v>
+        <v>321.914190164208</v>
       </c>
       <c r="S5">
-        <v>0.06955465057919648</v>
+        <v>0.1351521195044455</v>
       </c>
       <c r="T5">
-        <v>0.06955465057919648</v>
+        <v>0.1351521195044455</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.961922534979066</v>
+        <v>2.446732</v>
       </c>
       <c r="H6">
-        <v>0.961922534979066</v>
+        <v>7.340196000000001</v>
       </c>
       <c r="I6">
-        <v>0.2919676739881242</v>
+        <v>0.5075507217365239</v>
       </c>
       <c r="J6">
-        <v>0.2919676739881242</v>
+        <v>0.5075507217365239</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.7489416814728</v>
+        <v>27.084169</v>
       </c>
       <c r="N6">
-        <v>26.7489416814728</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O6">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="P6">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="Q6">
-        <v>25.73040979024952</v>
+        <v>66.26770298570801</v>
       </c>
       <c r="R6">
-        <v>25.73040979024952</v>
+        <v>596.4093268713721</v>
       </c>
       <c r="S6">
-        <v>0.1575062659425762</v>
+        <v>0.2503958728186806</v>
       </c>
       <c r="T6">
-        <v>0.1575062659425762</v>
+        <v>0.2503958728186806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.446732</v>
+      </c>
+      <c r="H7">
+        <v>7.340196000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.5075507217365239</v>
+      </c>
+      <c r="J7">
+        <v>0.5075507217365239</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>13.19647366666667</v>
+      </c>
+      <c r="N7">
+        <v>39.589421</v>
+      </c>
+      <c r="O7">
+        <v>0.2403754426670501</v>
+      </c>
+      <c r="P7">
+        <v>0.2403754426670501</v>
+      </c>
+      <c r="Q7">
+        <v>32.28823440739068</v>
+      </c>
+      <c r="R7">
+        <v>290.594109666516</v>
+      </c>
+      <c r="S7">
+        <v>0.1220027294133977</v>
+      </c>
+      <c r="T7">
+        <v>0.1220027294133977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.953740666666667</v>
+      </c>
+      <c r="H8">
+        <v>5.861222</v>
+      </c>
+      <c r="I8">
+        <v>0.4052844714716054</v>
+      </c>
+      <c r="J8">
+        <v>0.4052844714716054</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>14.61878266666667</v>
+      </c>
+      <c r="N8">
+        <v>43.856348</v>
+      </c>
+      <c r="O8">
+        <v>0.2662829816142094</v>
+      </c>
+      <c r="P8">
+        <v>0.2662829816142094</v>
+      </c>
+      <c r="Q8">
+        <v>28.56131019302844</v>
+      </c>
+      <c r="R8">
+        <v>257.051791737256</v>
+      </c>
+      <c r="S8">
+        <v>0.1079203574653981</v>
+      </c>
+      <c r="T8">
+        <v>0.1079203574653981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.961922534979066</v>
-      </c>
-      <c r="H7">
-        <v>0.961922534979066</v>
-      </c>
-      <c r="I7">
-        <v>0.2919676739881242</v>
-      </c>
-      <c r="J7">
-        <v>0.2919676739881242</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>11.0229714342534</v>
-      </c>
-      <c r="N7">
-        <v>11.0229714342534</v>
-      </c>
-      <c r="O7">
-        <v>0.2223080267063799</v>
-      </c>
-      <c r="P7">
-        <v>0.2223080267063799</v>
-      </c>
-      <c r="Q7">
-        <v>10.60324462503886</v>
-      </c>
-      <c r="R7">
-        <v>10.60324462503886</v>
-      </c>
-      <c r="S7">
-        <v>0.06490675746635155</v>
-      </c>
-      <c r="T7">
-        <v>0.06490675746635155</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.953740666666667</v>
+      </c>
+      <c r="H9">
+        <v>5.861222</v>
+      </c>
+      <c r="I9">
+        <v>0.4052844714716054</v>
+      </c>
+      <c r="J9">
+        <v>0.4052844714716054</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>27.084169</v>
+      </c>
+      <c r="N9">
+        <v>81.25250700000001</v>
+      </c>
+      <c r="O9">
+        <v>0.4933415757187404</v>
+      </c>
+      <c r="P9">
+        <v>0.4933415757187404</v>
+      </c>
+      <c r="Q9">
+        <v>52.91544239817267</v>
+      </c>
+      <c r="R9">
+        <v>476.2389815835541</v>
+      </c>
+      <c r="S9">
+        <v>0.1999436797701387</v>
+      </c>
+      <c r="T9">
+        <v>0.1999436797701387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.953740666666667</v>
+      </c>
+      <c r="H10">
+        <v>5.861222</v>
+      </c>
+      <c r="I10">
+        <v>0.4052844714716054</v>
+      </c>
+      <c r="J10">
+        <v>0.4052844714716054</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.19647366666667</v>
+      </c>
+      <c r="N10">
+        <v>39.589421</v>
+      </c>
+      <c r="O10">
+        <v>0.2403754426670501</v>
+      </c>
+      <c r="P10">
+        <v>0.2403754426670501</v>
+      </c>
+      <c r="Q10">
+        <v>25.78248725916244</v>
+      </c>
+      <c r="R10">
+        <v>232.042385332462</v>
+      </c>
+      <c r="S10">
+        <v>0.0974204342360686</v>
+      </c>
+      <c r="T10">
+        <v>0.09742043423606858</v>
       </c>
     </row>
   </sheetData>
